--- a/myportfolio.xlsx
+++ b/myportfolio.xlsx
@@ -4423,19 +4423,19 @@
         <v>45729</v>
       </c>
       <c r="B51" t="n">
-        <v>211.8000030517578</v>
+        <v>211.8674011230469</v>
       </c>
       <c r="C51" t="n">
-        <v>165.5800018310547</v>
+        <v>165.6499938964844</v>
       </c>
       <c r="D51" t="n">
-        <v>379.8800048828125</v>
+        <v>379.9750061035156</v>
       </c>
       <c r="E51" t="n">
-        <v>553.59521484375</v>
+        <v>553.760009765625</v>
       </c>
       <c r="F51" t="n">
-        <v>240.6513977050781</v>
+        <v>241.2200927734375</v>
       </c>
       <c r="G51" t="n">
         <v>216.8394012451172</v>
@@ -4483,19 +4483,19 @@
         <v>248.125</v>
       </c>
       <c r="V51" t="n">
-        <v>39102506</v>
+        <v>39297750</v>
       </c>
       <c r="W51" t="n">
-        <v>10247173</v>
+        <v>10303102</v>
       </c>
       <c r="X51" t="n">
-        <v>12496944</v>
+        <v>12564018</v>
       </c>
       <c r="Y51" t="n">
-        <v>42344452</v>
+        <v>42928503</v>
       </c>
       <c r="Z51" t="n">
-        <v>94389105</v>
+        <v>94859292</v>
       </c>
     </row>
   </sheetData>

--- a/myportfolio.xlsx
+++ b/myportfolio.xlsx
@@ -4423,19 +4423,19 @@
         <v>45729</v>
       </c>
       <c r="B51" t="n">
-        <v>211.8674011230469</v>
+        <v>212.095703125</v>
       </c>
       <c r="C51" t="n">
-        <v>165.6499938964844</v>
+        <v>165.7899932861328</v>
       </c>
       <c r="D51" t="n">
-        <v>379.9750061035156</v>
+        <v>380.2514953613281</v>
       </c>
       <c r="E51" t="n">
-        <v>553.760009765625</v>
+        <v>554.1500244140625</v>
       </c>
       <c r="F51" t="n">
-        <v>241.2200927734375</v>
+        <v>241.5099029541016</v>
       </c>
       <c r="G51" t="n">
         <v>216.8394012451172</v>
@@ -4483,19 +4483,19 @@
         <v>248.125</v>
       </c>
       <c r="V51" t="n">
-        <v>39297750</v>
+        <v>39428936</v>
       </c>
       <c r="W51" t="n">
-        <v>10303102</v>
+        <v>10342055</v>
       </c>
       <c r="X51" t="n">
-        <v>12564018</v>
+        <v>12611660</v>
       </c>
       <c r="Y51" t="n">
-        <v>42928503</v>
+        <v>43190827</v>
       </c>
       <c r="Z51" t="n">
-        <v>94859292</v>
+        <v>95143115</v>
       </c>
     </row>
   </sheetData>

--- a/myportfolio.xlsx
+++ b/myportfolio.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4403,19 +4403,19 @@
         <v>247.2200012207031</v>
       </c>
       <c r="V50" t="n">
-        <v>62466400</v>
+        <v>62547500</v>
       </c>
       <c r="W50" t="n">
-        <v>19847600</v>
+        <v>19880100</v>
       </c>
       <c r="X50" t="n">
-        <v>24213900</v>
+        <v>24253600</v>
       </c>
       <c r="Y50" t="n">
-        <v>69437200</v>
+        <v>69588200</v>
       </c>
       <c r="Z50" t="n">
-        <v>140904000</v>
+        <v>142215700</v>
       </c>
     </row>
     <row r="51">
@@ -4423,79 +4423,399 @@
         <v>45729</v>
       </c>
       <c r="B51" t="n">
-        <v>212.095703125</v>
+        <v>209.6799926757812</v>
       </c>
       <c r="C51" t="n">
-        <v>165.7899932861328</v>
+        <v>164.7299957275391</v>
       </c>
       <c r="D51" t="n">
-        <v>380.2514953613281</v>
+        <v>378.7699890136719</v>
       </c>
       <c r="E51" t="n">
-        <v>554.1500244140625</v>
+        <v>551.4199829101562</v>
       </c>
       <c r="F51" t="n">
-        <v>241.5099029541016</v>
+        <v>240.6799926757812</v>
       </c>
       <c r="G51" t="n">
-        <v>216.8394012451172</v>
+        <v>216.8399963378906</v>
       </c>
       <c r="H51" t="n">
         <v>168.1199951171875</v>
       </c>
       <c r="I51" t="n">
-        <v>385.3099060058594</v>
+        <v>385.3200073242188</v>
       </c>
       <c r="J51" t="n">
-        <v>559.10498046875</v>
+        <v>559.1099853515625</v>
       </c>
       <c r="K51" t="n">
         <v>248.2899932861328</v>
       </c>
       <c r="L51" t="n">
-        <v>210.5001068115234</v>
+        <v>208.4199981689453</v>
       </c>
       <c r="M51" t="n">
         <v>164.0700073242188</v>
       </c>
       <c r="N51" t="n">
-        <v>377.8001098632812</v>
+        <v>377.4500122070312</v>
       </c>
       <c r="O51" t="n">
         <v>549.6799926757812</v>
       </c>
       <c r="P51" t="n">
-        <v>233.5299987792969</v>
+        <v>232.6000061035156</v>
       </c>
       <c r="Q51" t="n">
-        <v>215.9400024414062</v>
+        <v>215.9499969482422</v>
       </c>
       <c r="R51" t="n">
-        <v>168</v>
+        <v>167.9799957275391</v>
       </c>
       <c r="S51" t="n">
-        <v>383.1549987792969</v>
+        <v>383.1600036621094</v>
       </c>
       <c r="T51" t="n">
         <v>558.489990234375</v>
       </c>
       <c r="U51" t="n">
-        <v>248.125</v>
+        <v>248.1300048828125</v>
       </c>
       <c r="V51" t="n">
-        <v>39428936</v>
+        <v>61368300</v>
       </c>
       <c r="W51" t="n">
-        <v>10342055</v>
+        <v>15206200</v>
       </c>
       <c r="X51" t="n">
-        <v>12611660</v>
+        <v>20473000</v>
       </c>
       <c r="Y51" t="n">
-        <v>43190827</v>
+        <v>74079400</v>
       </c>
       <c r="Z51" t="n">
-        <v>95143115</v>
+        <v>114813500</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="B52" t="n">
+        <v>213.4900054931641</v>
+      </c>
+      <c r="C52" t="n">
+        <v>167.6199951171875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>388.5599975585938</v>
+      </c>
+      <c r="E52" t="n">
+        <v>562.8099975585938</v>
+      </c>
+      <c r="F52" t="n">
+        <v>249.9799957275391</v>
+      </c>
+      <c r="G52" t="n">
+        <v>213.9499969482422</v>
+      </c>
+      <c r="H52" t="n">
+        <v>168.25</v>
+      </c>
+      <c r="I52" t="n">
+        <v>390.2300109863281</v>
+      </c>
+      <c r="J52" t="n">
+        <v>563.8300170898438</v>
+      </c>
+      <c r="K52" t="n">
+        <v>251.5800018310547</v>
+      </c>
+      <c r="L52" t="n">
+        <v>209.5800018310547</v>
+      </c>
+      <c r="M52" t="n">
+        <v>164.5099945068359</v>
+      </c>
+      <c r="N52" t="n">
+        <v>379.510009765625</v>
+      </c>
+      <c r="O52" t="n">
+        <v>551.489990234375</v>
+      </c>
+      <c r="P52" t="n">
+        <v>240.7299957275391</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>211.25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>165.3150024414062</v>
+      </c>
+      <c r="S52" t="n">
+        <v>379.7799987792969</v>
+      </c>
+      <c r="T52" t="n">
+        <v>556.1099853515625</v>
+      </c>
+      <c r="U52" t="n">
+        <v>247.3099975585938</v>
+      </c>
+      <c r="V52" t="n">
+        <v>60107600</v>
+      </c>
+      <c r="W52" t="n">
+        <v>18611100</v>
+      </c>
+      <c r="X52" t="n">
+        <v>19952800</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>62660300</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>100242300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B53" t="n">
+        <v>214</v>
+      </c>
+      <c r="C53" t="n">
+        <v>166.5700073242188</v>
+      </c>
+      <c r="D53" t="n">
+        <v>388.7000122070312</v>
+      </c>
+      <c r="E53" t="n">
+        <v>567.1500244140625</v>
+      </c>
+      <c r="F53" t="n">
+        <v>238.0099945068359</v>
+      </c>
+      <c r="G53" t="n">
+        <v>215.2200012207031</v>
+      </c>
+      <c r="H53" t="n">
+        <v>168.4600067138672</v>
+      </c>
+      <c r="I53" t="n">
+        <v>392.7099914550781</v>
+      </c>
+      <c r="J53" t="n">
+        <v>569.7100219726562</v>
+      </c>
+      <c r="K53" t="n">
+        <v>245.3999938964844</v>
+      </c>
+      <c r="L53" t="n">
+        <v>209.9700012207031</v>
+      </c>
+      <c r="M53" t="n">
+        <v>165.8099975585938</v>
+      </c>
+      <c r="N53" t="n">
+        <v>385.5700073242188</v>
+      </c>
+      <c r="O53" t="n">
+        <v>562.3499755859375</v>
+      </c>
+      <c r="P53" t="n">
+        <v>232.8000030517578</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>213.3099975585938</v>
+      </c>
+      <c r="R53" t="n">
+        <v>167.3249969482422</v>
+      </c>
+      <c r="S53" t="n">
+        <v>386.7000122070312</v>
+      </c>
+      <c r="T53" t="n">
+        <v>562.7899780273438</v>
+      </c>
+      <c r="U53" t="n">
+        <v>245.0599975585938</v>
+      </c>
+      <c r="V53" t="n">
+        <v>48073400</v>
+      </c>
+      <c r="W53" t="n">
+        <v>17839100</v>
+      </c>
+      <c r="X53" t="n">
+        <v>22474300</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>49008700</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>111900600</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B54" t="n">
+        <v>212.6900024414062</v>
+      </c>
+      <c r="C54" t="n">
+        <v>162.6699981689453</v>
+      </c>
+      <c r="D54" t="n">
+        <v>383.5199890136719</v>
+      </c>
+      <c r="E54" t="n">
+        <v>561.02001953125</v>
+      </c>
+      <c r="F54" t="n">
+        <v>225.3099975585938</v>
+      </c>
+      <c r="G54" t="n">
+        <v>215.1499938964844</v>
+      </c>
+      <c r="H54" t="n">
+        <v>166.4400024414062</v>
+      </c>
+      <c r="I54" t="n">
+        <v>387.3699951171875</v>
+      </c>
+      <c r="J54" t="n">
+        <v>565.02001953125</v>
+      </c>
+      <c r="K54" t="n">
+        <v>230.1000061035156</v>
+      </c>
+      <c r="L54" t="n">
+        <v>211.4900054931641</v>
+      </c>
+      <c r="M54" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="N54" t="n">
+        <v>381.1000061035156</v>
+      </c>
+      <c r="O54" t="n">
+        <v>559.0599975585938</v>
+      </c>
+      <c r="P54" t="n">
+        <v>222.2799987792969</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>214.1600036621094</v>
+      </c>
+      <c r="R54" t="n">
+        <v>165.9600067138672</v>
+      </c>
+      <c r="S54" t="n">
+        <v>387.0700073242188</v>
+      </c>
+      <c r="T54" t="n">
+        <v>564.7999877929688</v>
+      </c>
+      <c r="U54" t="n">
+        <v>228.1600036621094</v>
+      </c>
+      <c r="V54" t="n">
+        <v>42432400</v>
+      </c>
+      <c r="W54" t="n">
+        <v>24616800</v>
+      </c>
+      <c r="X54" t="n">
+        <v>19486900</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>66041400</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>111477600</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B55" t="n">
+        <v>215.2400054931641</v>
+      </c>
+      <c r="C55" t="n">
+        <v>166.2799987792969</v>
+      </c>
+      <c r="D55" t="n">
+        <v>387.8200073242188</v>
+      </c>
+      <c r="E55" t="n">
+        <v>567.1300048828125</v>
+      </c>
+      <c r="F55" t="n">
+        <v>235.8600006103516</v>
+      </c>
+      <c r="G55" t="n">
+        <v>218.7599945068359</v>
+      </c>
+      <c r="H55" t="n">
+        <v>168.1329956054688</v>
+      </c>
+      <c r="I55" t="n">
+        <v>389.6799926757812</v>
+      </c>
+      <c r="J55" t="n">
+        <v>570.9500122070312</v>
+      </c>
+      <c r="K55" t="n">
+        <v>241.4100036621094</v>
+      </c>
+      <c r="L55" t="n">
+        <v>213.75</v>
+      </c>
+      <c r="M55" t="n">
+        <v>163.0500030517578</v>
+      </c>
+      <c r="N55" t="n">
+        <v>384</v>
+      </c>
+      <c r="O55" t="n">
+        <v>561.6300048828125</v>
+      </c>
+      <c r="P55" t="n">
+        <v>229.1999969482422</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>214.2200012207031</v>
+      </c>
+      <c r="R55" t="n">
+        <v>163.9149932861328</v>
+      </c>
+      <c r="S55" t="n">
+        <v>385.5299987792969</v>
+      </c>
+      <c r="T55" t="n">
+        <v>562.8300170898438</v>
+      </c>
+      <c r="U55" t="n">
+        <v>231.6100006103516</v>
+      </c>
+      <c r="V55" t="n">
+        <v>54336700</v>
+      </c>
+      <c r="W55" t="n">
+        <v>24932500</v>
+      </c>
+      <c r="X55" t="n">
+        <v>19165300</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>66392000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>111250900</v>
       </c>
     </row>
   </sheetData>
